--- a/biology/Écologie/Côte_de_l'Atlantique/Côte_de_l'Atlantique.xlsx
+++ b/biology/Écologie/Côte_de_l'Atlantique/Côte_de_l'Atlantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4te_de_l%27Atlantique</t>
+          <t>Côte_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La côte de l'Atlantique est une écorégion du cadre écologique canadien faisant partie de l'écozone maritime de l'Atlantique. Elle comprend une mince bande de terre au sud de la Nouvelle-Écosse, entre la baie Sainte-Marie à l'ouest et la baie Mira sur l'île du Cap-Breton à l'est.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4te_de_l%27Atlantique</t>
+          <t>Côte_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt de cette écorégion est principalement composée d'épinette noire, d'épinette blanche et de sapin baumier. On y rencontre aussi l'érable rouge et le bouleau jaune dans les parties les plus productives[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt de cette écorégion est principalement composée d'épinette noire, d'épinette blanche et de sapin baumier. On y rencontre aussi l'érable rouge et le bouleau jaune dans les parties les plus productives.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4te_de_l%27Atlantique</t>
+          <t>Côte_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorégion sert de refuge aux oiseaux de mer ainsi qu'au cerf de Virginie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorégion sert de refuge aux oiseaux de mer ainsi qu'au cerf de Virginie.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4te_de_l%27Atlantique</t>
+          <t>Côte_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Aires protégées et patrimoniales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seul 1,3 % de l'écorégion est situé dans une aire protégée[2]. On y retrouve entre autres une partie du parc national de Kejimkujik. Un site du patrimoine mondial est situé dans cette écorégion, soit Le Vieux Lunenburg. Quant à l'est de la côte de l'Atlantique, il fait partie de la réserve de biosphère de Southwest Nova.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seul 1,3 % de l'écorégion est situé dans une aire protégée. On y retrouve entre autres une partie du parc national de Kejimkujik. Un site du patrimoine mondial est situé dans cette écorégion, soit Le Vieux Lunenburg. Quant à l'est de la côte de l'Atlantique, il fait partie de la réserve de biosphère de Southwest Nova.
 </t>
         </is>
       </c>
